--- a/weather_analysis/本局救護未送醫案件分析表0314.xlsx
+++ b/weather_analysis/本局救護未送醫案件分析表0314.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynewu/4.Github/Taipei-City-Fire-Department-Data-Processing/weather_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8219929D-A5D9-684A-BD3B-83C0FFDE11E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2A6E81-31EE-4E46-8A46-65B2421C72FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="11560" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="107年8月" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="108年1月" sheetId="5" r:id="rId6"/>
     <sheet name="108年2月" sheetId="13" r:id="rId7"/>
     <sheet name="108年3月" sheetId="6" r:id="rId8"/>
+    <sheet name="全部資料" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="103">
   <si>
     <t>出勤次數</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -345,6 +346,33 @@
   <si>
     <t>晴天  21.1 C</t>
   </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>雨天</t>
+  </si>
+  <si>
+    <t>沒雨</t>
+  </si>
+  <si>
+    <t>飄雨</t>
+  </si>
+  <si>
+    <t>雨天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沒雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飄雨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -355,7 +383,7 @@
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,6 +426,14 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -463,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +548,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -528,6 +568,5287 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>月天氣與次數比較圖</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>出勤次數</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'108年1月'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68AE-6F4F-9116-5F035FF02A5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="102194816"/>
+        <c:axId val="76664976"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>拒送次數</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'108年1月'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68AE-6F4F-9116-5F035FF02A5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="108161824"/>
+        <c:axId val="108159344"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>氣溫</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'108年1月'!$P$2:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.538709677419348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-68AE-6F4F-9116-5F035FF02A5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="108161824"/>
+        <c:axId val="108159344"/>
+      </c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>天氣</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'108年1月'!$R$2:$R$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-68AE-6F4F-9116-5F035FF02A5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="108161824"/>
+        <c:axId val="108159344"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="102194816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>天數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76664976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76664976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>出勤次數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102194816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108159344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>拒送次數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108161824"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="108161824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108159344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>月天氣與次數比較圖</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>出勤次數</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'108年2月'!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-084D-D343-9B03-FA3C6CAA1939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="102194816"/>
+        <c:axId val="76664976"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>拒送次數</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'108年2月'!$D$2:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-084D-D343-9B03-FA3C6CAA1939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="108161824"/>
+        <c:axId val="108159344"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>氣溫</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'108年2月'!$P$2:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>18.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-084D-D343-9B03-FA3C6CAA1939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="108161824"/>
+        <c:axId val="108159344"/>
+      </c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>天氣</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'108年2月'!$R$2:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-084D-D343-9B03-FA3C6CAA1939}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="108161824"/>
+        <c:axId val="108159344"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="102194816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>天數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76664976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76664976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>出勤次數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102194816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108159344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>拒送次數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108161824"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="108161824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108159344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t>月天氣與次數比較圖</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>出勤次數</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'108年3月'!$B$2:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EE1-404C-AACD-B8113A4F1073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="102194816"/>
+        <c:axId val="76664976"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>拒送次數</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'108年3月'!$D$2:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EE1-404C-AACD-B8113A4F1073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="108161824"/>
+        <c:axId val="108159344"/>
+      </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>天氣</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'108年3月'!$R$2:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9EE1-404C-AACD-B8113A4F1073}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>氣溫</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'108年3月'!$P$2:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F8D-3547-A551-58E3C2A32335}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="108161824"/>
+        <c:axId val="108159344"/>
+      </c:scatterChart>
+      <c:catAx>
+        <c:axId val="102194816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>天數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76664976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76664976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>出勤次數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102194816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108159344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:t>拒送次數</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108161824"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="108161824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108159344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>719666</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>98778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>225777</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>183444</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C767E3C4-49CD-3A4C-9C41-26AEE9311B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>427566</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>134055</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EEBBC7D-DD6D-B742-A3D9-88417A02DFE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56444</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239888</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F024B5E1-4BAC-2B44-AD4E-87B995A0F44A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>755090</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F208895-722C-844A-8E22-A2BD1B7BDD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317499" y="444500"/>
+          <a:ext cx="6216091" cy="2616200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8415,11 +13736,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8437,7 +13758,7 @@
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -8481,8 +13802,14 @@
       <c r="O1" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="3">
         <v>43466</v>
       </c>
@@ -8531,8 +13858,18 @@
       <c r="O2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="17">
+        <v>16.2</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2">
+        <f>VLOOKUP(Q2,$T$3:$U$5,2,FALSE)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="3">
         <v>43467</v>
       </c>
@@ -8581,8 +13918,24 @@
       <c r="O3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="17">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3">
+        <f>VLOOKUP(Q3,$T$3:$U$5,2,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3">
         <v>43468</v>
       </c>
@@ -8631,8 +13984,24 @@
       <c r="O4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="17">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R32" si="3">VLOOKUP(Q4,$T$3:$U$5,2,FALSE)</f>
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="3">
         <v>43469</v>
       </c>
@@ -8681,8 +14050,24 @@
       <c r="O5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="17">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="3">
         <v>43470</v>
       </c>
@@ -8731,8 +14116,18 @@
       <c r="O6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="17">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="3">
         <v>43471</v>
       </c>
@@ -8781,8 +14176,18 @@
       <c r="O7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="17">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="3">
         <v>43472</v>
       </c>
@@ -8831,8 +14236,18 @@
       <c r="O8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="17">
+        <v>20.6</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="3">
         <v>43473</v>
       </c>
@@ -8881,8 +14296,18 @@
       <c r="O9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="17">
+        <v>20</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="3">
         <v>43474</v>
       </c>
@@ -8931,8 +14356,18 @@
       <c r="O10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="17">
+        <v>18.7</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="3">
         <v>43475</v>
       </c>
@@ -8981,8 +14416,18 @@
       <c r="O11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="17">
+        <v>22.7</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="3">
         <v>43476</v>
       </c>
@@ -9031,8 +14476,18 @@
       <c r="O12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="17">
+        <v>22.1</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="3">
         <v>43477</v>
       </c>
@@ -9081,8 +14536,18 @@
       <c r="O13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="17">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="3">
         <v>43478</v>
       </c>
@@ -9131,8 +14596,18 @@
       <c r="O14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="17">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="3">
         <v>43479</v>
       </c>
@@ -9181,8 +14656,18 @@
       <c r="O15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="17">
+        <v>19.7</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="3">
         <v>43480</v>
       </c>
@@ -9231,8 +14716,18 @@
       <c r="O16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="17">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="3">
         <v>43481</v>
       </c>
@@ -9281,8 +14776,18 @@
       <c r="O17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="17">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="3">
         <v>43482</v>
       </c>
@@ -9331,8 +14836,18 @@
       <c r="O18" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="17">
+        <v>15.7</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="3">
         <v>43483</v>
       </c>
@@ -9381,8 +14896,18 @@
       <c r="O19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="17">
+        <v>18.2</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="3">
         <v>43484</v>
       </c>
@@ -9431,8 +14956,18 @@
       <c r="O20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="17">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="3">
         <v>43485</v>
       </c>
@@ -9481,8 +15016,18 @@
       <c r="O21" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="17">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="3">
         <v>43486</v>
       </c>
@@ -9531,8 +15076,18 @@
       <c r="O22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="17">
+        <v>15.2</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="3">
         <v>43487</v>
       </c>
@@ -9581,8 +15136,18 @@
       <c r="O23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="17">
+        <v>14.5</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="3">
         <v>43488</v>
       </c>
@@ -9631,8 +15196,18 @@
       <c r="O24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="17">
+        <v>16.2</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="3">
         <v>43489</v>
       </c>
@@ -9681,8 +15256,18 @@
       <c r="O25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="17">
+        <v>17.8</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="3">
         <v>43490</v>
       </c>
@@ -9731,8 +15316,18 @@
       <c r="O26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="17">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="3">
         <v>43491</v>
       </c>
@@ -9781,8 +15376,18 @@
       <c r="O27" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="17">
+        <v>15.4</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="3">
         <v>43492</v>
       </c>
@@ -9831,8 +15436,18 @@
       <c r="O28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="17">
+        <v>15.5</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="3">
         <v>43493</v>
       </c>
@@ -9881,8 +15496,18 @@
       <c r="O29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="17">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="3">
         <v>43494</v>
       </c>
@@ -9931,8 +15556,18 @@
       <c r="O30" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="17">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="3">
         <v>43495</v>
       </c>
@@ -9981,8 +15616,18 @@
       <c r="O31" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="17">
+        <v>20.9</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="3">
         <v>43496</v>
       </c>
@@ -10031,49 +15676,59 @@
       <c r="O32" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="P32" s="17">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="7">
-        <f t="shared" ref="B33:K33" si="3">SUM(B2:B32)</f>
+        <f t="shared" ref="B33:K33" si="4">SUM(B2:B32)</f>
         <v>10789</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8483</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>688</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>174</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>427</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>746</v>
       </c>
       <c r="L33" s="8">
@@ -10085,6 +15740,10 @@
         <v>0.18133564948851574</v>
       </c>
       <c r="N33" s="1"/>
+      <c r="P33">
+        <f>AVERAGE(P2:P32)</f>
+        <v>18.538709677419348</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10093,20 +15752,21 @@
   <headerFooter>
     <oddHeader>&amp;C&amp;"標楷體,粗體"&amp;18 107年8月1日至9月16日救護未送醫案件比例分析</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -10150,8 +15810,14 @@
       <c r="O1" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="3">
         <v>43497</v>
       </c>
@@ -10200,8 +15866,18 @@
       <c r="O2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="17">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R2">
+        <f>VLOOKUP(Q2,$T$3:$U$5,2,FALSE)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="3">
         <v>43498</v>
       </c>
@@ -10250,8 +15926,24 @@
       <c r="O3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="17">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3">
+        <f>VLOOKUP(Q3,$T$3:$U$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3">
         <v>43499</v>
       </c>
@@ -10300,8 +15992,24 @@
       <c r="O4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="17">
+        <v>21.8</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R29" si="3">VLOOKUP(Q4,$T$3:$U$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="3">
         <v>43500</v>
       </c>
@@ -10350,8 +16058,24 @@
       <c r="O5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="17">
+        <v>18.2</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="T5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="3">
         <v>43501</v>
       </c>
@@ -10400,8 +16124,18 @@
       <c r="O6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="17">
+        <v>18.5</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="3">
         <v>43502</v>
       </c>
@@ -10450,8 +16184,18 @@
       <c r="O7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="17">
+        <v>20.8</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="3">
         <v>43503</v>
       </c>
@@ -10500,8 +16244,18 @@
       <c r="O8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="17">
+        <v>22.1</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="3">
         <v>43504</v>
       </c>
@@ -10550,8 +16304,18 @@
       <c r="O9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="17">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="3">
         <v>43505</v>
       </c>
@@ -10600,8 +16364,18 @@
       <c r="O10" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="17">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="3">
         <v>43506</v>
       </c>
@@ -10650,8 +16424,18 @@
       <c r="O11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="17">
+        <v>16.8</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="3">
         <v>43507</v>
       </c>
@@ -10700,8 +16484,18 @@
       <c r="O12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="17">
+        <v>16.7</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="3">
         <v>43508</v>
       </c>
@@ -10750,8 +16544,18 @@
       <c r="O13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="17">
+        <v>20.7</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="3">
         <v>43509</v>
       </c>
@@ -10800,8 +16604,18 @@
       <c r="O14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="17">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="3">
         <v>43510</v>
       </c>
@@ -10850,8 +16664,18 @@
       <c r="O15" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="17">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="3">
         <v>43511</v>
       </c>
@@ -10900,8 +16724,18 @@
       <c r="O16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="17">
+        <v>21.3</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="3">
         <v>43512</v>
       </c>
@@ -10950,8 +16784,18 @@
       <c r="O17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="17">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="3">
         <v>43513</v>
       </c>
@@ -11000,8 +16844,18 @@
       <c r="O18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="17">
+        <v>16.8</v>
+      </c>
+      <c r="Q18" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="3">
         <v>43514</v>
       </c>
@@ -11050,8 +16904,18 @@
       <c r="O19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="17">
+        <v>20.3</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="3">
         <v>43515</v>
       </c>
@@ -11100,8 +16964,18 @@
       <c r="O20" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="17">
+        <v>20.7</v>
+      </c>
+      <c r="Q20" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="3">
         <v>43516</v>
       </c>
@@ -11150,8 +17024,18 @@
       <c r="O21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="17">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="3">
         <v>43517</v>
       </c>
@@ -11200,8 +17084,18 @@
       <c r="O22" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="17">
+        <v>21.4</v>
+      </c>
+      <c r="Q22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="3">
         <v>43518</v>
       </c>
@@ -11250,8 +17144,18 @@
       <c r="O23" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="17">
+        <v>17.8</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="3">
         <v>43519</v>
       </c>
@@ -11300,8 +17204,18 @@
       <c r="O24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="17">
+        <v>14.5</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="3">
         <v>43520</v>
       </c>
@@ -11350,8 +17264,18 @@
       <c r="O25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="17">
+        <v>15.4</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="3">
         <v>43521</v>
       </c>
@@ -11400,8 +17324,18 @@
       <c r="O26" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="17">
+        <v>17.3</v>
+      </c>
+      <c r="Q26" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="3">
         <v>43522</v>
       </c>
@@ -11450,8 +17384,18 @@
       <c r="O27" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="17">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="3">
         <v>43523</v>
       </c>
@@ -11499,8 +17443,18 @@
       <c r="O28" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="17">
+        <v>20.8</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="3">
         <v>43524</v>
       </c>
@@ -11549,8 +17503,18 @@
       <c r="O29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="17">
+        <v>18.8</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4">
@@ -11574,8 +17538,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <f>AVERAGE(P2:P29)</f>
+        <v>18.792857142857144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
@@ -11600,7 +17568,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:18">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4">
@@ -11630,43 +17598,43 @@
         <v>9</v>
       </c>
       <c r="B33" s="7">
-        <f t="shared" ref="B33:K33" si="3">SUM(B2:B32)</f>
+        <f t="shared" ref="B33:K33" si="4">SUM(B2:B32)</f>
         <v>8828</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7051</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>648</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>588</v>
       </c>
       <c r="L33" s="8">
@@ -11683,16 +17651,17 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomLeft" activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11708,9 +17677,10 @@
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -11754,8 +17724,14 @@
       <c r="O1" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="3">
         <v>43525</v>
       </c>
@@ -11804,8 +17780,18 @@
       <c r="O2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="17">
+        <v>19.5</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2">
+        <f>VLOOKUP(Q2,$T$3:$U$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="3">
         <v>43526</v>
       </c>
@@ -11854,8 +17840,24 @@
       <c r="O3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="17">
+        <v>21.9</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3">
+        <f>VLOOKUP(Q3,$T$3:$U$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>100</v>
+      </c>
+      <c r="U3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="3">
         <v>43527</v>
       </c>
@@ -11904,8 +17906,24 @@
       <c r="O4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="17">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R15" si="3">VLOOKUP(Q4,$T$3:$U$5,2,FALSE)</f>
+        <v>40</v>
+      </c>
+      <c r="T4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="3">
         <v>43528</v>
       </c>
@@ -11954,8 +17972,24 @@
       <c r="O5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="17">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="3">
         <v>43529</v>
       </c>
@@ -12004,8 +18038,18 @@
       <c r="O6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="17">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="3">
         <v>43530</v>
       </c>
@@ -12054,8 +18098,18 @@
       <c r="O7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="17">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="3">
         <v>43531</v>
       </c>
@@ -12104,8 +18158,18 @@
       <c r="O8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="17">
+        <v>13.5</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="3">
         <v>43532</v>
       </c>
@@ -12154,8 +18218,18 @@
       <c r="O9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="17">
+        <v>15.3</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="3">
         <v>43533</v>
       </c>
@@ -12204,8 +18278,18 @@
       <c r="O10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="17">
+        <v>17.8</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="3">
         <v>43534</v>
       </c>
@@ -12254,8 +18338,18 @@
       <c r="O11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="17">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="3">
         <v>43535</v>
       </c>
@@ -12304,8 +18398,18 @@
       <c r="O12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="17">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="3">
         <v>43536</v>
       </c>
@@ -12354,8 +18458,18 @@
       <c r="O13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="17">
+        <v>20.6</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="3">
         <v>43537</v>
       </c>
@@ -12404,8 +18518,18 @@
       <c r="O14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="17">
+        <v>20.9</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="3">
         <v>43538</v>
       </c>
@@ -12454,8 +18578,18 @@
       <c r="O15" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="17">
+        <v>21.1</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="3">
         <v>43539</v>
       </c>
@@ -12481,6 +18615,10 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N16" s="1"/>
+      <c r="P16">
+        <f>AVERAGE(P2:P15)</f>
+        <v>18.535714285714288</v>
+      </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="3">
@@ -12919,43 +19057,43 @@
         <v>9</v>
       </c>
       <c r="B33" s="7">
-        <f t="shared" ref="B33:K33" si="3">SUM(B2:B32)</f>
+        <f t="shared" ref="B33:K33" si="4">SUM(B2:B32)</f>
         <v>4245</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3430</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="L33" s="8">
@@ -12972,5 +19110,22 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF49BEB-8C46-9F46-84FD-DA5F7BBE4775}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>